--- a/parameter_files/v3/de_dg_gwq_upper.xlsx
+++ b/parameter_files/v3/de_dg_gwq_upper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{1B55F186-EA2C-4865-8DAB-A5C1B6051DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C06ECE-C039-44E9-9682-FA47C253F3C4}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{1B55F186-EA2C-4865-8DAB-A5C1B6051DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E56B851-9E75-4491-B50B-6188899D27F7}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1530" windowWidth="14400" windowHeight="7360" xr2:uid="{C11508F3-0935-47AB-A4FD-BF724EA4D517}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{C11508F3-0935-47AB-A4FD-BF724EA4D517}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Bureau of Reclamation</t>
-  </si>
-  <si>
-    <t>Legislature</t>
   </si>
   <si>
     <t>Friant Water Authority</t>
@@ -688,7 +685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,13 +693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC20A376-8F6F-4163-B3F6-35DA71F5866E}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,30 +710,30 @@
     <row r="1" spans="1:8" s="12" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -747,7 +744,7 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -758,7 +755,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -769,7 +766,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -780,7 +777,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -791,7 +788,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -804,7 +801,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4">
@@ -823,7 +820,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4">
@@ -896,8 +893,8 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
+      <c r="A15" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -921,7 +918,9 @@
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -932,63 +931,63 @@
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>-1</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8">
-        <v>-1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="2"/>
+      <c r="A19" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="8">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>-1</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -999,44 +998,50 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-1</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>-1</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="2"/>
@@ -1059,49 +1064,30 @@
         <v>12</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>-1</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-1</v>
+      </c>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parameter_files/v3/de_dg_gwq_upper.xlsx
+++ b/parameter_files/v3/de_dg_gwq_upper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{1B55F186-EA2C-4865-8DAB-A5C1B6051DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E56B851-9E75-4491-B50B-6188899D27F7}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{1B55F186-EA2C-4865-8DAB-A5C1B6051DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9749DF46-2780-45DA-B827-408CC625FEB1}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{C11508F3-0935-47AB-A4FD-BF724EA4D517}"/>
   </bookViews>
@@ -394,6 +394,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,18 +700,18 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="13" t="s">
         <v>27</v>
@@ -731,7 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -742,7 +746,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -753,7 +757,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -764,7 +768,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -775,7 +779,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -786,7 +790,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -799,7 +803,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -818,7 +822,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -837,7 +841,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +852,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -859,7 +863,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,7 +874,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -881,7 +885,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -892,7 +896,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -903,7 +907,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
@@ -914,12 +918,12 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -927,7 +931,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -946,12 +950,12 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -970,7 +974,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -981,12 +985,12 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -994,15 +998,23 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="C23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-1</v>
+      </c>
       <c r="G23" s="4">
         <v>-1</v>
       </c>
@@ -1010,7 +1022,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1033,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1052,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1071,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1082,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
